--- a/QL/QLTC/QLTC-FC-2015_thp.xlsx
+++ b/QL/QLTC/QLTC-FC-2015_thp.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="208">
   <si>
     <t>Số dư tháng 8</t>
   </si>
@@ -591,6 +591,69 @@
   </si>
   <si>
     <t>KHF No.30 (tới lấy)</t>
+  </si>
+  <si>
+    <t>KHF A Thông</t>
+  </si>
+  <si>
+    <t>Thúy - ma xịt phòng</t>
+  </si>
+  <si>
+    <t>Tiền điện tháng 05</t>
+  </si>
+  <si>
+    <t>Mua màng ép (17 xấp)</t>
+  </si>
+  <si>
+    <t>KHF A.Huy</t>
+  </si>
+  <si>
+    <t>KHF C.Ly (Cố Đô)</t>
+  </si>
+  <si>
+    <t>Lợi (Chợ An Đông)</t>
+  </si>
+  <si>
+    <t>KHF Minh Đức</t>
+  </si>
+  <si>
+    <t>Tuấn Kiệt VT</t>
+  </si>
+  <si>
+    <t>Hằng Biên Hòa</t>
+  </si>
+  <si>
+    <t>10 gsm giấy</t>
+  </si>
+  <si>
+    <t>2 bàn cắt</t>
+  </si>
+  <si>
+    <t>10 xấp màng ép</t>
+  </si>
+  <si>
+    <t>Cuộn màng mờ</t>
+  </si>
+  <si>
+    <t>Ứng công cắt ba Thái</t>
+  </si>
+  <si>
+    <t>Xăng từ 1/06-&gt;14/06</t>
+  </si>
+  <si>
+    <t>KHF Minh</t>
+  </si>
+  <si>
+    <t>Thái Photo + in Sách</t>
+  </si>
+  <si>
+    <t>Ship GHN</t>
+  </si>
+  <si>
+    <t>Xăng Hùng từ 10-18/06</t>
+  </si>
+  <si>
+    <t>Đúng tới ngày 18 (6.655.000)</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1482,7 +1545,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 9'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1503,7 +1566,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -1536,7 +1599,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -1549,7 +1612,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -1562,7 +1625,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F36" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -1575,7 +1638,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -1588,7 +1651,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -1601,7 +1664,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -1614,7 +1677,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -1627,7 +1690,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -1640,7 +1703,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -1653,7 +1716,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -1666,7 +1729,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -1679,7 +1742,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -1692,7 +1755,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -1705,7 +1768,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -1718,7 +1781,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -1731,7 +1794,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -1744,7 +1807,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -1757,7 +1820,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -1770,7 +1833,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
@@ -1783,7 +1846,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
@@ -1796,7 +1859,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
@@ -1809,7 +1872,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -1822,7 +1885,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
@@ -1835,7 +1898,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
@@ -1848,7 +1911,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
@@ -1861,7 +1924,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
@@ -1874,7 +1937,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
@@ -1887,7 +1950,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
@@ -1900,7 +1963,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -1913,7 +1976,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
@@ -1926,7 +1989,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75">
@@ -1991,7 +2054,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 10'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2012,7 +2075,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -2045,7 +2108,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -2058,7 +2121,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -2071,7 +2134,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F24" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -2084,7 +2147,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -2097,7 +2160,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -2110,7 +2173,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -2123,7 +2186,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -2136,7 +2199,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -2149,7 +2212,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -2162,7 +2225,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -2175,7 +2238,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -2188,7 +2251,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -2201,7 +2264,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -2214,7 +2277,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -2227,7 +2290,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -2240,7 +2303,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -2253,7 +2316,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -2266,7 +2329,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -2279,7 +2342,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2402,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 11'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2360,7 +2423,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -2393,7 +2456,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -2406,7 +2469,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -2419,7 +2482,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F24" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -2432,7 +2495,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -2445,7 +2508,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -2458,7 +2521,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -2471,7 +2534,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -2484,7 +2547,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -2497,7 +2560,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -2510,7 +2573,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -2523,7 +2586,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -2536,7 +2599,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -2549,7 +2612,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -2562,7 +2625,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -2575,7 +2638,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -2588,7 +2651,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -2601,7 +2664,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -2614,7 +2677,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -2627,7 +2690,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
   </sheetData>
@@ -6749,10 +6812,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6809,16 +6872,16 @@
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" s="3">
-        <f>SUM(D6:D1128)</f>
-        <v>14777000</v>
+        <f>SUM(D6:D1131)</f>
+        <v>21511000</v>
       </c>
       <c r="E4" s="3">
-        <f>SUM(E6:E1128)</f>
-        <v>13876000</v>
+        <f>SUM(E6:E1131)</f>
+        <v>20304000</v>
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" t="s">
@@ -6831,15 +6894,15 @@
       <c r="K4" s="28"/>
       <c r="L4" s="3">
         <f>SUM(L5:L1122)</f>
-        <v>2016000</v>
+        <v>2736000</v>
       </c>
       <c r="M4" s="3">
         <f>SUM(M9:M1122)</f>
-        <v>25000</v>
+        <v>310000</v>
       </c>
       <c r="N4" s="8">
         <f>L4-M4</f>
-        <v>1991000</v>
+        <v>2426000</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
@@ -7155,12 +7218,20 @@
       <c r="I13" s="5">
         <v>8</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+      <c r="J13" s="5">
+        <v>16</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="6">
+        <v>108000</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="5">
@@ -7183,10 +7254,18 @@
       <c r="I14" s="5">
         <v>9</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="J14" s="5">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="6">
+        <v>324000</v>
+      </c>
+      <c r="M14" s="6">
+        <v>285000</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="19"/>
     </row>
@@ -7211,9 +7290,15 @@
       <c r="I15" s="5">
         <v>10</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="5">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="6">
+        <v>288000</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
       <c r="O15" s="19"/>
@@ -7905,260 +7990,383 @@
       <c r="A45" s="5">
         <v>40</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="5">
+        <v>15</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="6">
+        <v>560000</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6909000</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75">
       <c r="A46" s="5">
         <v>41</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="5">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="6">
+        <v>318000</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>7227000</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75">
       <c r="A47" s="5">
         <v>42</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="5">
+        <v>15</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="6">
+        <v>396000</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>7623000</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75">
       <c r="A48" s="5">
         <v>43</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="5">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6">
+        <v>34000</v>
+      </c>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75">
+        <v>7589000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="5">
         <v>44</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="5">
+        <v>16</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="6">
+        <v>72000</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75">
+        <v>7661000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="5">
         <v>45</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="5">
+        <v>16</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6">
+        <v>1000000</v>
+      </c>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75">
+        <v>6661000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="5">
         <v>46</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="5">
+        <v>16</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="6">
+        <v>108000</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75">
+        <v>6769000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="5">
         <v>47</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="B52" s="5">
+        <v>16</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>1000000</v>
+      </c>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75">
+        <v>5769000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
       <c r="A53" s="5">
         <v>48</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="5">
+        <v>17</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>1190000</v>
+      </c>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75">
+        <v>4579000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="5">
         <v>49</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="5">
+        <v>17</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="6">
+        <v>280000</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75">
+        <v>4859000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="5">
         <v>50</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="5">
+        <v>18</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5000000</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75">
+        <v>9859000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
       <c r="A56" s="5">
         <v>51</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="5">
+        <v>18</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="6">
+        <v>600000</v>
+      </c>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75">
+        <v>9259000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="5">
         <v>52</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="B57" s="5">
+        <v>18</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <v>500000</v>
+      </c>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75">
+        <v>8759000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="5">
         <v>53</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="5">
+        <v>18</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6">
+        <v>770000</v>
+      </c>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75">
+        <v>7989000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="5">
         <v>54</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="5">
+        <v>18</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6">
+        <v>190000</v>
+      </c>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75">
+        <v>7799000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="5">
         <v>55</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="5">
+        <v>18</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6">
+        <v>400000</v>
+      </c>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75">
+        <v>7399000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="5">
         <v>56</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="5">
+        <v>18</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>100000</v>
+      </c>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75">
+        <v>7299000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="5">
         <v>57</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="5">
+        <v>18</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6">
+        <v>555000</v>
+      </c>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75">
+        <v>6744000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
       <c r="A63" s="5">
         <v>58</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="B63" s="5">
+        <v>18</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6">
+        <v>39000</v>
+      </c>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75">
+        <v>6705000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="5">
         <v>59</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="5">
+        <v>18</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6">
+        <v>50000</v>
+      </c>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75">
@@ -8171,7 +8379,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75">
@@ -8184,7 +8392,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75">
@@ -8197,7 +8405,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75">
@@ -8210,7 +8418,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75">
@@ -8223,7 +8431,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75">
@@ -8236,7 +8444,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75">
@@ -8249,7 +8457,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75">
@@ -8262,7 +8470,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75">
@@ -8275,7 +8483,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75">
@@ -8288,7 +8496,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75">
@@ -8301,7 +8509,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75">
@@ -8314,7 +8522,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75">
@@ -8327,7 +8535,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75">
@@ -8340,7 +8548,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75">
@@ -8353,7 +8561,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75">
@@ -8366,7 +8574,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75">
@@ -8379,7 +8587,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75">
@@ -8392,7 +8600,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75">
@@ -8405,7 +8613,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75">
@@ -8418,7 +8626,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75">
@@ -8431,7 +8639,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75">
@@ -8444,7 +8652,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75">
@@ -8457,7 +8665,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75">
@@ -8470,7 +8678,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75">
@@ -8483,7 +8691,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75">
@@ -8496,7 +8704,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75">
@@ -8509,7 +8717,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75">
@@ -8522,7 +8730,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75">
@@ -8535,7 +8743,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75">
@@ -8548,7 +8756,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75">
@@ -8561,7 +8769,7 @@
       <c r="E95" s="6"/>
       <c r="F95" s="7">
         <f t="shared" si="1"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75">
@@ -8573,8 +8781,8 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="7">
-        <f t="shared" ref="F96:F149" si="2">F95+D96-E96</f>
-        <v>6349000</v>
+        <f t="shared" ref="F96:F150" si="2">F95+D96-E96</f>
+        <v>6655000</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75">
@@ -8587,7 +8795,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75">
@@ -8600,7 +8808,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75">
@@ -8613,7 +8821,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75">
@@ -8626,7 +8834,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75">
@@ -8639,7 +8847,7 @@
       <c r="E101" s="6"/>
       <c r="F101" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75">
@@ -8652,7 +8860,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75">
@@ -8665,7 +8873,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75">
@@ -8678,7 +8886,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75">
@@ -8691,7 +8899,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75">
@@ -8704,7 +8912,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75">
@@ -8717,7 +8925,7 @@
       <c r="E107" s="6"/>
       <c r="F107" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75">
@@ -8730,7 +8938,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75">
@@ -8743,7 +8951,7 @@
       <c r="E109" s="6"/>
       <c r="F109" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75">
@@ -8756,7 +8964,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75">
@@ -8769,7 +8977,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75">
@@ -8782,7 +8990,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75">
@@ -8795,7 +9003,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75">
@@ -8808,7 +9016,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75">
@@ -8821,7 +9029,7 @@
       <c r="E115" s="6"/>
       <c r="F115" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75">
@@ -8834,7 +9042,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75">
@@ -8847,7 +9055,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75">
@@ -8860,7 +9068,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75">
@@ -8873,7 +9081,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75">
@@ -8886,7 +9094,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75">
@@ -8899,7 +9107,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75">
@@ -8912,7 +9120,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75">
@@ -8925,7 +9133,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75">
@@ -8938,7 +9146,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75">
@@ -8951,7 +9159,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75">
@@ -8964,7 +9172,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75">
@@ -8977,7 +9185,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75">
@@ -8990,7 +9198,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75">
@@ -9003,7 +9211,7 @@
       <c r="E129" s="6"/>
       <c r="F129" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75">
@@ -9016,7 +9224,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75">
@@ -9029,7 +9237,7 @@
       <c r="E131" s="6"/>
       <c r="F131" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75">
@@ -9042,7 +9250,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75">
@@ -9055,7 +9263,7 @@
       <c r="E133" s="6"/>
       <c r="F133" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75">
@@ -9068,7 +9276,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75">
@@ -9081,7 +9289,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75">
@@ -9094,7 +9302,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75">
@@ -9107,7 +9315,7 @@
       <c r="E137" s="6"/>
       <c r="F137" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75">
@@ -9120,7 +9328,7 @@
       <c r="E138" s="6"/>
       <c r="F138" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75">
@@ -9133,7 +9341,7 @@
       <c r="E139" s="6"/>
       <c r="F139" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75">
@@ -9146,7 +9354,7 @@
       <c r="E140" s="6"/>
       <c r="F140" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75">
@@ -9159,7 +9367,7 @@
       <c r="E141" s="6"/>
       <c r="F141" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75">
@@ -9172,7 +9380,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75">
@@ -9185,7 +9393,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75">
@@ -9198,7 +9406,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75">
@@ -9211,7 +9419,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75">
@@ -9224,7 +9432,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75">
@@ -9234,7 +9442,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15.75">
@@ -9244,7 +9452,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15.75">
@@ -9254,7 +9462,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="7">
         <f t="shared" si="2"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75">
@@ -9262,6 +9470,10 @@
       <c r="C150" s="5"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
+      <c r="F150" s="7">
+        <f t="shared" si="2"/>
+        <v>6655000</v>
+      </c>
     </row>
     <row r="151" spans="1:6" ht="15.75">
       <c r="B151" s="5"/>
@@ -9274,6 +9486,24 @@
       <c r="C152" s="5"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9333,7 +9563,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 6'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -9354,7 +9584,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -9387,7 +9617,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -9400,7 +9630,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -9413,7 +9643,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F36" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -9426,7 +9656,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -9439,7 +9669,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -9452,7 +9682,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -9465,7 +9695,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -9478,7 +9708,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -9491,7 +9721,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -9504,7 +9734,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -9517,7 +9747,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -9530,7 +9760,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -9543,7 +9773,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -9556,7 +9786,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -9569,7 +9799,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -9582,7 +9812,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -9595,7 +9825,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -9608,7 +9838,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -9621,7 +9851,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
@@ -9634,7 +9864,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
@@ -9647,7 +9877,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
@@ -9660,7 +9890,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -9673,7 +9903,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
@@ -9686,7 +9916,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
@@ -9699,7 +9929,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
@@ -9712,7 +9942,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
@@ -9725,7 +9955,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
@@ -9738,7 +9968,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
@@ -9751,7 +9981,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -9764,7 +9994,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
@@ -9777,7 +10007,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
   </sheetData>
@@ -9836,7 +10066,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 7'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -9857,7 +10087,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -9890,7 +10120,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -9903,7 +10133,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -9916,7 +10146,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F36" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -9929,7 +10159,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -9942,7 +10172,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -9955,7 +10185,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -9968,7 +10198,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -9981,7 +10211,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -9994,7 +10224,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -10007,7 +10237,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -10020,7 +10250,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -10033,7 +10263,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -10046,7 +10276,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -10059,7 +10289,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -10072,7 +10302,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -10085,7 +10315,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -10098,7 +10328,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -10111,7 +10341,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -10124,7 +10354,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
@@ -10137,7 +10367,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
@@ -10150,7 +10380,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
@@ -10163,7 +10393,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -10176,7 +10406,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
@@ -10189,7 +10419,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
@@ -10202,7 +10432,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
@@ -10215,7 +10445,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
@@ -10228,7 +10458,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
@@ -10241,7 +10471,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
@@ -10254,7 +10484,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -10267,7 +10497,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
@@ -10280,7 +10510,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75">
@@ -10345,7 +10575,7 @@
       </c>
       <c r="D3" s="9">
         <f>'Tháng 8'!F4</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -10366,7 +10596,7 @@
       </c>
       <c r="F4" s="8">
         <f>D4-E4+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
@@ -10399,7 +10629,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f>D6-E6+D3</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
@@ -10412,7 +10642,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>F6+D7-E7</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -10425,7 +10655,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F36" si="0">F7+D8-E8</f>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
@@ -10438,7 +10668,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
@@ -10451,7 +10681,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -10464,7 +10694,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
@@ -10477,7 +10707,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -10490,7 +10720,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
@@ -10503,7 +10733,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -10516,7 +10746,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
@@ -10529,7 +10759,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
@@ -10542,7 +10772,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
@@ -10555,7 +10785,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
@@ -10568,7 +10798,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75">
@@ -10581,7 +10811,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75">
@@ -10594,7 +10824,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
@@ -10607,7 +10837,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
@@ -10620,7 +10850,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
@@ -10633,7 +10863,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
@@ -10646,7 +10876,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
@@ -10659,7 +10889,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
@@ -10672,7 +10902,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
@@ -10685,7 +10915,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
@@ -10698,7 +10928,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
@@ -10711,7 +10941,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
@@ -10724,7 +10954,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
@@ -10737,7 +10967,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
@@ -10750,7 +10980,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
@@ -10763,7 +10993,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -10776,7 +11006,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
@@ -10789,7 +11019,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>6349000</v>
+        <v>6655000</v>
       </c>
     </row>
   </sheetData>
